--- a/client_server/client_server_configurations.xlsx
+++ b/client_server/client_server_configurations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karem\Documents\Business\Students-PostDocs\Fazekas, Katalin\ClientServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karem\Documents\Business\Students-PostDocs\Fazekas, Katalin\ClientServer\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9744" windowHeight="10008" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9744" windowHeight="10008" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="c3s2" sheetId="5" r:id="rId3"/>
     <sheet name="c2s3" sheetId="4" r:id="rId4"/>
     <sheet name="c3s3" sheetId="1" r:id="rId5"/>
+    <sheet name="Config 2 Comparison" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -682,37 +683,158 @@
     <t>0110|00</t>
   </si>
   <si>
-    <t>c3 linked to all servers</t>
-  </si>
-  <si>
-    <t>c1 linked to all servers</t>
-  </si>
-  <si>
-    <t>c2 linked to all servers</t>
-  </si>
-  <si>
-    <t>c1(s1,s2) c2(s3)</t>
-  </si>
-  <si>
-    <t>c1(s1,s2) c3(s3)</t>
-  </si>
-  <si>
-    <t>c1(s1,s3) c2(s2)</t>
-  </si>
-  <si>
-    <t>c1(s1,s3) c3(s2)</t>
-  </si>
-  <si>
-    <t>c1(s2,s3) c2(s1)</t>
-  </si>
-  <si>
-    <t>c1(s2,s3) c3(s1)</t>
-  </si>
-  <si>
-    <t>c1(s1) c2(s2) c3(s3)</t>
-  </si>
-  <si>
-    <t>c1(s1) c2(s3) c3(s2)</t>
+    <t>c2s2</t>
+  </si>
+  <si>
+    <t>c3s2</t>
+  </si>
+  <si>
+    <t>c2s3</t>
+  </si>
+  <si>
+    <t>c3s3</t>
+  </si>
+  <si>
+    <t>~S1 | ~S2</t>
+  </si>
+  <si>
+    <t>Some server is unavailable</t>
+  </si>
+  <si>
+    <t>S1 | S2 | S3</t>
+  </si>
+  <si>
+    <t>Some server is available</t>
+  </si>
+  <si>
+    <t>~S1 | ~S2 | ~S3</t>
+  </si>
+  <si>
+    <t>Some client is linked to some server</t>
+  </si>
+  <si>
+    <t>L11 |  L12 |  L21 |  L22</t>
+  </si>
+  <si>
+    <t>L11 | L12 | L21 | L22 | L31 | L32</t>
+  </si>
+  <si>
+    <t>L11 | L12 | L13 | L21 | L22 | L23</t>
+  </si>
+  <si>
+    <t>~L12 |  S1
+ ~L22 |  S1
+ ~L11 |  S2
+ ~L21 |  S2</t>
+  </si>
+  <si>
+    <t>~L11 | ~L21
+ ~L12 | ~L22</t>
+  </si>
+  <si>
+    <t>~L12 | S1
+ ~L22 | S1
+ ~L32 | S1
+ ~L11 | S2
+ ~L21 | S2
+ ~L31 | S2</t>
+  </si>
+  <si>
+    <t>~L11 | ~L21
+ ~L11 | ~L31
+ ~L21 | ~L31
+ ~L12 | ~L22
+ ~L12 | ~L32
+ ~L22 | ~L32</t>
+  </si>
+  <si>
+    <t>L11 | L21 | S1
+ L12 | L22 | S2
+ L13 | L23 | S3</t>
+  </si>
+  <si>
+    <t>~L11 | ~S1
+ ~L21 | ~S1
+ ~L12 | ~S2
+ ~L22 | ~S2
+ ~L13 | ~S3
+ ~L23 | ~S3</t>
+  </si>
+  <si>
+    <t>~L11 | ~L21
+ ~L12 | ~L22
+ ~L13 | ~L23</t>
+  </si>
+  <si>
+    <t>~L11 | ~S1
+ ~L21 | ~S1
+ ~L31 | ~S1
+ ~L12 | ~S2
+ ~L22 | ~S2
+ ~L32 | ~S2
+ ~L13 | ~S3
+ ~L23 | ~S3
+ ~L33 | ~S3</t>
+  </si>
+  <si>
+    <t>~L11 | ~L21
+ ~L11 | ~L31
+ ~L21 | ~L31
+ ~L12 | ~L22
+ ~L12 | ~L32
+ ~L22 | ~L32
+ ~L13 | ~L23
+ ~L13 | ~L33
+ ~L23 | ~L33</t>
+  </si>
+  <si>
+    <t>\exists S. ~semaphore(S)</t>
+  </si>
+  <si>
+    <t>\exists S, \exists C. link(C, S)</t>
+  </si>
+  <si>
+    <t>\exists S. semaphore(S)</t>
+  </si>
+  <si>
+    <t>\forall S, \forall C. semaphore(S) --&gt; ~link(C, S)</t>
+  </si>
+  <si>
+    <t>L11 | L21 | L31 | S1
+ L12 | L22 | L32 | S2
+ L13 | L23 | L33 | S3</t>
+  </si>
+  <si>
+    <t>\forall S. ~semaphore(S) --&gt; \exists C. link(C, S)</t>
+  </si>
+  <si>
+    <t>\forall S, \forall C1, C2. link(C1, S) &amp; link(C2, S) --&gt; (C1 == C2)</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>\forall Sx, Sy, \forall C. ~semaphore(S) --&gt; ~link(C, S)</t>
+  </si>
+  <si>
+    <t>If a server available,
+then no clients can be linked to it.</t>
+  </si>
+  <si>
+    <t>If a server is unavailable,
+then some client must be linked to it</t>
+  </si>
+  <si>
+    <t>This is the property P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If s1 is available, then s2 is not and
+some client must be linked to it.
+And if s2 is available, then s1 is not and some client must be linkt to it
+</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1229,6 +1351,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1274,11 +1416,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1305,8 +1444,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1642,78 +1811,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1741,226 +1910,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1975,353 +2144,353 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2336,573 +2505,573 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="5">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="5">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>22</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="5">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="5">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2913,1356 +3082,1486 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="6"/>
-    <col min="7" max="7" width="19.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
         <v>9</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
         <v>9</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>9</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
         <v>9</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
         <v>9</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
         <v>9</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>19</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
         <v>18</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>23</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
         <v>18</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
         <v>18</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>25</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
         <v>18</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>26</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
         <v>18</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>27</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
         <v>18</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>28</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
         <v>18</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>29</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>30</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <v>18</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>31</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>32</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
         <v>18</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>33</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
         <v>18</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>34</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
         <v>18</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>35</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5">
         <v>18</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>36</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
         <v>18</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>37</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="6">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>38</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="6">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>39</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="6">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6">
-        <v>3</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>40</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="6">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5">
         <v>18</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>41</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="6">
-        <v>3</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5">
         <v>18</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="6">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
         <v>18</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>43</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="6">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5">
         <v>18</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>44</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="6">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" s="5">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5">
         <v>18</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>45</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="6">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
         <v>18</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>46</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="6">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" s="5">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5">
         <v>18</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>47</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="6">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5">
         <v>18</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>48</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="6">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="C55" s="5">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
         <v>18</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>49</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="6">
-        <v>3</v>
-      </c>
-      <c r="D56" s="6">
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5">
         <v>18</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>50</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="6">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
         <v>18</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>51</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="6">
-        <v>3</v>
-      </c>
-      <c r="D58" s="6">
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
         <v>18</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>52</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="6">
-        <v>3</v>
-      </c>
-      <c r="D59" s="6">
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5">
         <v>18</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>53</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="6">
-        <v>3</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5">
         <v>18</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>54</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="6">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
+      <c r="C61" s="5">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5">
         <v>18</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>55</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="6">
-        <v>3</v>
-      </c>
-      <c r="D62" s="6">
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
         <v>18</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>56</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="6">
-        <v>3</v>
-      </c>
-      <c r="D63" s="6">
+      <c r="C63" s="5">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5">
         <v>18</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>57</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="6">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6">
+      <c r="C64" s="5">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5">
         <v>18</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <v>58</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="6">
-        <v>3</v>
-      </c>
-      <c r="D66" s="6">
-        <v>6</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>59</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="6">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6">
-        <v>6</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <v>60</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="6">
-        <v>3</v>
-      </c>
-      <c r="D68" s="6">
-        <v>6</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>61</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="6">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="C69" s="5">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>62</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="6">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>6</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="5">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>63</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="6">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
+      <c r="D71" s="5">
+        <v>6</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>